--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T11:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:58+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:24+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Assists with tracking the state of the lab order and its completion status</t>
+    <t>Assists with tracking the state of the lab order and its completion status.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,25 +619,25 @@
     <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
   </si>
   <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-reason-sample-cancelled-or-rejected</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
   </si>
   <si>
     <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
@@ -1880,7 +1880,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.60546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="89.75" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3901,13 +3901,11 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y18" s="2"/>
+      <c r="Z18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3943,7 +3941,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3954,10 +3952,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3983,14 +3981,14 @@
         <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4015,7 +4013,7 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
         <v>202</v>
@@ -4039,7 +4037,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4359,7 +4357,7 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>228</v>
@@ -5727,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>322</v>
@@ -7549,7 +7547,7 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>404</v>
@@ -8231,7 +8229,7 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>420</v>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
